--- a/Assignment 1.1/Data.xlsx
+++ b/Assignment 1.1/Data.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meyer69" sheetId="1" r:id="rId1"/>
     <sheet name="Barford79" sheetId="6" r:id="rId2"/>
     <sheet name="Hall79" sheetId="8" r:id="rId3"/>
-    <sheet name="Cortassa98" sheetId="7" r:id="rId4"/>
-    <sheet name="VanHoek97" sheetId="2" r:id="rId5"/>
-    <sheet name="Postma89" sheetId="3" r:id="rId6"/>
-    <sheet name="Pijen93" sheetId="4" r:id="rId7"/>
-    <sheet name="Sonn86" sheetId="5" r:id="rId8"/>
+    <sheet name="Rieger83" sheetId="9" r:id="rId4"/>
+    <sheet name="Kock201" sheetId="10" r:id="rId5"/>
+    <sheet name="Kock202" sheetId="11" r:id="rId6"/>
+    <sheet name="Cortassa98" sheetId="7" r:id="rId7"/>
+    <sheet name="VanHoek97" sheetId="2" r:id="rId8"/>
+    <sheet name="Postma89" sheetId="3" r:id="rId9"/>
+    <sheet name="Pijen93" sheetId="4" r:id="rId10"/>
+    <sheet name="Sonn86" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>D (1/h)</t>
   </si>
@@ -181,13 +184,19 @@
   </si>
   <si>
     <t>Ethanol</t>
+  </si>
+  <si>
+    <t>S (mmol/g/h)</t>
+  </si>
+  <si>
+    <t>X(g/L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -230,12 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,6 +875,256 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.04</v>
+      </c>
+      <c r="C2">
+        <f>101.235*E2/(0.8314*(30+273.15))</f>
+        <v>2.0357839250089782</v>
+      </c>
+      <c r="D2">
+        <f>101.235*F2/(0.8314*(30+273.15))</f>
+        <v>3.3880006662193862</v>
+      </c>
+      <c r="E2">
+        <v>5.0683732054604098</v>
+      </c>
+      <c r="F2">
+        <v>8.4349088259318208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">101.235*E3/(0.8314*(30+273.15))</f>
+        <v>3.0428810650437228</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">101.235*F3/(0.8314*(30+273.15))</f>
+        <v>6.1655431066495998</v>
+      </c>
+      <c r="E3">
+        <v>7.5756845645602704</v>
+      </c>
+      <c r="F3">
+        <v>15.3499952008493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.09</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.733545388877066</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>12.170422747678034</v>
+      </c>
+      <c r="E4">
+        <v>11.7848335086492</v>
+      </c>
+      <c r="F4">
+        <v>30.299995886442201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6.0359737652270011</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>16.75900909196136</v>
+      </c>
+      <c r="E5">
+        <v>15.027413923805099</v>
+      </c>
+      <c r="F5">
+        <v>41.723933266341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.32</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.051788589880184</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>21.991193452298166</v>
+      </c>
+      <c r="E6">
+        <v>17.556429196857199</v>
+      </c>
+      <c r="F6">
+        <v>54.750199311664602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.199753857805547</v>
+      </c>
+      <c r="C2">
+        <v>6.20373000094669</v>
+      </c>
+      <c r="D2">
+        <f>-G2</f>
+        <v>5.7337685209101004</v>
+      </c>
+      <c r="F2">
+        <v>0.20704088102002999</v>
+      </c>
+      <c r="G2">
+        <v>-5.7337685209101004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.29413400549086399</v>
+      </c>
+      <c r="C3">
+        <v>8.0412761526081606</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">-G3</f>
+        <v>7.6906098105055598</v>
+      </c>
+      <c r="F3">
+        <v>0.30061990748350398</v>
+      </c>
+      <c r="G3">
+        <v>-7.6906098105055598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.32428642431127502</v>
+      </c>
+      <c r="C4">
+        <v>13.7139070339865</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>8.03926080728864</v>
+      </c>
+      <c r="F4">
+        <v>0.328932538098481</v>
+      </c>
+      <c r="G4">
+        <v>-8.03926080728864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.36047406039950802</v>
+      </c>
+      <c r="C5">
+        <v>20.6475433115592</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8.1066992274638299</v>
+      </c>
+      <c r="F5">
+        <v>0.366332448869373</v>
+      </c>
+      <c r="G5">
+        <v>-8.1066992274638299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.41171423837924798</v>
+      </c>
+      <c r="C6">
+        <v>29.785098930228099</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8.1758283044122209</v>
+      </c>
+      <c r="F6">
+        <v>0.41720478080165302</v>
+      </c>
+      <c r="G6">
+        <v>-8.1758283044122209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B8B89-7EA2-4CD0-91A1-EFFEC237D60F}">
   <dimension ref="A1:F11"/>
@@ -888,7 +1157,7 @@
         <v>4.9345644748078596</v>
       </c>
       <c r="C2">
-        <f>101.235*F2/(8.314*(30+273.15))</f>
+        <f t="shared" ref="C2:C11" si="0">101.235*F2/(8.314*(30+273.15))</f>
         <v>1.3006280798670351</v>
       </c>
       <c r="D2">
@@ -910,11 +1179,11 @@
         <v>5.0639410760034096</v>
       </c>
       <c r="C3">
-        <f>101.235*F3/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>3.0152933329290934</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">101.235*E3/(8.314*(30+273.15))</f>
+        <f t="shared" ref="D3:D11" si="1">101.235*E3/(8.314*(30+273.15))</f>
         <v>3.6644370416569649</v>
       </c>
       <c r="E3">
@@ -932,11 +1201,11 @@
         <v>4.8742314261315096</v>
       </c>
       <c r="C4">
-        <f>101.235*F4/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>5.5991245613792087</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5991245613792087</v>
       </c>
       <c r="E4">
@@ -954,11 +1223,11 @@
         <v>3.4875320239111902</v>
       </c>
       <c r="C5">
-        <f>101.235*F5/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>9.7051665779640199</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.110118178296803</v>
       </c>
       <c r="E5">
@@ -976,11 +1245,11 @@
         <v>3.2198761742100799</v>
       </c>
       <c r="C6">
-        <f>101.235*F6/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>10.890321978874653</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.187082961086135</v>
       </c>
       <c r="E6">
@@ -998,11 +1267,11 @@
         <v>2.7103757472246</v>
       </c>
       <c r="C7">
-        <f>101.235*F7/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>14.772180551179266</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.175605716267793</v>
       </c>
       <c r="E7">
@@ -1020,11 +1289,11 @@
         <v>2.2281596925704599</v>
       </c>
       <c r="C8">
-        <f>101.235*F8/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>18.006976003566034</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.218777934075835</v>
       </c>
       <c r="E8">
@@ -1042,11 +1311,11 @@
         <v>1.6656276686592799</v>
       </c>
       <c r="C9">
-        <f>101.235*F9/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>24.810501412348614</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.639056873701037</v>
       </c>
       <c r="E9">
@@ -1064,11 +1333,11 @@
         <v>1.68906917164818</v>
       </c>
       <c r="C10">
-        <f>101.235*F10/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>28.58442944013316</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.490311776965832</v>
       </c>
       <c r="E10">
@@ -1086,11 +1355,11 @@
         <v>1.6327711357813901</v>
       </c>
       <c r="C11">
-        <f>101.235*F11/(8.314*(30+273.15))</f>
+        <f t="shared" si="0"/>
         <v>30.627567651577962</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.477828244105709</v>
       </c>
       <c r="E11">
@@ -1109,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BDC48-FD57-4794-B0E3-0B71ED7912F8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,6 +1525,401 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE8B25-6354-474D-82B5-08D5F7D43B94}">
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.15854341736694599</v>
+      </c>
+      <c r="C2">
+        <v>3.7203694413088582</v>
+      </c>
+      <c r="D2">
+        <v>5.0348258706467597</v>
+      </c>
+      <c r="E2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>6.4</v>
+      </c>
+      <c r="D3">
+        <v>5.9701492537313303</v>
+      </c>
+      <c r="E3">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.24369747899159599</v>
+      </c>
+      <c r="C4">
+        <v>7.4</v>
+      </c>
+      <c r="D4">
+        <v>7.0248756218905397</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.27619047619047599</v>
+      </c>
+      <c r="C5">
+        <v>8.4</v>
+      </c>
+      <c r="D5">
+        <v>7.6218905472636802</v>
+      </c>
+      <c r="E5">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.31988795518207203</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>8.1791044776119399</v>
+      </c>
+      <c r="E6">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.35910364145658202</v>
+      </c>
+      <c r="C7">
+        <v>21.2</v>
+      </c>
+      <c r="D7">
+        <v>8.2388059701492597</v>
+      </c>
+      <c r="E7">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.40504201680672203</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>8.2189054726368305</v>
+      </c>
+      <c r="E8">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="21:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="21:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="21:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70647418-DAEC-4B55-9E2C-86B0AE140625}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.119622081550823</v>
+      </c>
+      <c r="C2">
+        <v>2.7877405401991999</v>
+      </c>
+      <c r="D2">
+        <v>2.1583500402544602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.141179534942459</v>
+      </c>
+      <c r="C3">
+        <v>3.9340458111670502</v>
+      </c>
+      <c r="D3">
+        <v>3.4095537278797599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.16019858872559001</v>
+      </c>
+      <c r="C4">
+        <v>3.61272041296351</v>
+      </c>
+      <c r="D4">
+        <v>2.77353307970384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.19253476881304499</v>
+      </c>
+      <c r="C5">
+        <v>4.6503386111417999</v>
+      </c>
+      <c r="D5">
+        <v>4.6503386111417999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.26283328334411998</v>
+      </c>
+      <c r="C6">
+        <v>6.8285790960897899</v>
+      </c>
+      <c r="D6">
+        <v>6.0942901794875803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.33070705795065197</v>
+      </c>
+      <c r="C7">
+        <v>22.224967243910498</v>
+      </c>
+      <c r="D7">
+        <v>4.3922364121426396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.37130250840607998</v>
+      </c>
+      <c r="C8">
+        <v>24.728321783194101</v>
+      </c>
+      <c r="D8">
+        <v>4.79762261827711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.46613257139248898</v>
+      </c>
+      <c r="C9">
+        <v>30.779279208170799</v>
+      </c>
+      <c r="D9">
+        <v>4.5546750438063404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BDF50B-8C70-4E95-B713-50CF3B393D98}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.13305215032558701</v>
+      </c>
+      <c r="C2">
+        <v>3.8162544169611201</v>
+      </c>
+      <c r="D2">
+        <v>3.3922261484098901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.19584503811263901</v>
+      </c>
+      <c r="C3">
+        <v>5.5123674911660698</v>
+      </c>
+      <c r="D3">
+        <v>5.0883392226148398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.25588512278950698</v>
+      </c>
+      <c r="C4">
+        <v>7.63250883392225</v>
+      </c>
+      <c r="D4">
+        <v>6.5724381625441799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.28051546640694702</v>
+      </c>
+      <c r="C5">
+        <v>6.9964664310953903</v>
+      </c>
+      <c r="D5">
+        <v>6.4664310954063602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.35477836715310201</v>
+      </c>
+      <c r="C6">
+        <v>26.925795053003501</v>
+      </c>
+      <c r="D6">
+        <v>2.5441696113074301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.39425935912811799</v>
+      </c>
+      <c r="C7">
+        <v>30.318021201413401</v>
+      </c>
+      <c r="D7">
+        <v>2.8621908127208702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.455453689319606</v>
+      </c>
+      <c r="C8">
+        <v>37.102473498233202</v>
+      </c>
+      <c r="D8">
+        <v>2.6501766784452299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E0B5B2-371F-4C6D-A99A-226108F947B1}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1361,7 +2025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -1707,7 +2371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2021,254 +2685,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.04</v>
-      </c>
-      <c r="C2">
-        <f>101.235*E2/(0.8314*(30+273.15))</f>
-        <v>2.0357839250089782</v>
-      </c>
-      <c r="D2">
-        <f>101.235*F2/(0.8314*(30+273.15))</f>
-        <v>3.3880006662193862</v>
-      </c>
-      <c r="E2">
-        <v>5.0683732054604098</v>
-      </c>
-      <c r="F2">
-        <v>8.4349088259318208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">101.235*E3/(0.8314*(30+273.15))</f>
-        <v>3.0428810650437228</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">101.235*F3/(0.8314*(30+273.15))</f>
-        <v>6.1655431066495998</v>
-      </c>
-      <c r="E3">
-        <v>7.5756845645602704</v>
-      </c>
-      <c r="F3">
-        <v>15.3499952008493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.09</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>4.733545388877066</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>12.170422747678034</v>
-      </c>
-      <c r="E4">
-        <v>11.7848335086492</v>
-      </c>
-      <c r="F4">
-        <v>30.299995886442201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>6.0359737652270011</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>16.75900909196136</v>
-      </c>
-      <c r="E5">
-        <v>15.027413923805099</v>
-      </c>
-      <c r="F5">
-        <v>41.723933266341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.32</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>7.051788589880184</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>21.991193452298166</v>
-      </c>
-      <c r="E6">
-        <v>17.556429196857199</v>
-      </c>
-      <c r="F6">
-        <v>54.750199311664602</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.199753857805547</v>
-      </c>
-      <c r="C2">
-        <v>6.20373000094669</v>
-      </c>
-      <c r="D2">
-        <f>-G2</f>
-        <v>5.7337685209101004</v>
-      </c>
-      <c r="F2">
-        <v>0.20704088102002999</v>
-      </c>
-      <c r="G2">
-        <v>-5.7337685209101004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.29413400549086399</v>
-      </c>
-      <c r="C3">
-        <v>8.0412761526081606</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">-G3</f>
-        <v>7.6906098105055598</v>
-      </c>
-      <c r="F3">
-        <v>0.30061990748350398</v>
-      </c>
-      <c r="G3">
-        <v>-7.6906098105055598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.32428642431127502</v>
-      </c>
-      <c r="C4">
-        <v>13.7139070339865</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>8.03926080728864</v>
-      </c>
-      <c r="F4">
-        <v>0.328932538098481</v>
-      </c>
-      <c r="G4">
-        <v>-8.03926080728864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.36047406039950802</v>
-      </c>
-      <c r="C5">
-        <v>20.6475433115592</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>8.1066992274638299</v>
-      </c>
-      <c r="F5">
-        <v>0.366332448869373</v>
-      </c>
-      <c r="G5">
-        <v>-8.1066992274638299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.41171423837924798</v>
-      </c>
-      <c r="C6">
-        <v>29.785098930228099</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>8.1758283044122209</v>
-      </c>
-      <c r="F6">
-        <v>0.41720478080165302</v>
-      </c>
-      <c r="G6">
-        <v>-8.1758283044122209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>